--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/19 Estados Financieros Actuales y Anterior.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/19 Estados Financieros Actuales y Anterior.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99539320-5838-449C-864F-B399F7267BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F54FFF-4208-466D-B70F-DB56206AE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -308,12 +308,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -643,7 +637,7 @@
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,31 +650,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="17" t="s">
@@ -688,37 +682,45 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="2" t="s">
         <v>1</v>
       </c>
@@ -745,92 +747,92 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f>SUM(C15:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="23">
         <f>SUM(D15:D21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <f>SUM(C23:C25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="23">
         <f>SUM(D23:D25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
@@ -888,8 +890,12 @@
       <c r="D41" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -916,24 +922,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1"/>
@@ -942,13 +948,13 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="27"/>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="17" t="s">
@@ -956,53 +962,53 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1012,16 +1018,16 @@
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1029,143 +1035,143 @@
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <f>SUM(C15:C21)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <f>SUM(D15:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="22">
         <f>SUM(E15:E21)</f>
         <v>0</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="23">
         <f>SUM(F15:F21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="24">
         <f>SUM(C23:C25)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="24">
         <f>SUM(D23:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="24">
         <f>SUM(E23:E25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="23">
         <f>SUM(F23:F25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F29" s="12"/>

--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/19 Estados Financieros Actuales y Anterior.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/19 Estados Financieros Actuales y Anterior.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F54FFF-4208-466D-B70F-DB56206AE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3104C53-F84C-459C-9C8C-2F9B7BC74B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,7 +637,7 @@
   <dimension ref="A2:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
